--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099726C1-9324-40DA-AE61-000DDA434BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465365A-1CBF-4981-B32F-232686316560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3FF0DE8-35BE-45A6-8655-0F7B9374E455}"/>
   </bookViews>
@@ -1414,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92F157-0F66-44CB-99F7-25952B2CE2AB}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465365A-1CBF-4981-B32F-232686316560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B436BF-A8FD-4BD9-9E65-D309629E4860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3FF0DE8-35BE-45A6-8655-0F7B9374E455}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="300">
   <si>
     <t>NO</t>
   </si>
@@ -916,6 +916,15 @@
   </si>
   <si>
     <t>TOPS detailed at Hanggang sa Kabilang Buhay Services</t>
+  </si>
+  <si>
+    <t>TIBAYAN</t>
+  </si>
+  <si>
+    <t>WILMER</t>
+  </si>
+  <si>
+    <t>Admin Officer III</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92F157-0F66-44CB-99F7-25952B2CE2AB}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,30 +6117,73 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45005</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>WILMER B. TIBAYAN</v>
+      </c>
+      <c r="I77" t="s">
+        <v>299</v>
+      </c>
+      <c r="J77" t="s">
+        <v>261</v>
       </c>
       <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
+      <c r="L77" s="8">
+        <v>45266</v>
+      </c>
+      <c r="M77" s="8">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>45267</v>
+      </c>
+      <c r="N77" s="5">
+        <v>31032</v>
+      </c>
+      <c r="O77" s="7">
+        <v>145.19600000000003</v>
+      </c>
+      <c r="P77" s="7">
+        <v>174.5</v>
+      </c>
       <c r="Q77" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S77" s="6" t="str">
+        <v>319.69600000000003</v>
+      </c>
+      <c r="R77" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S77" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N77,Q77:R77))</f>
-        <v>-------</v>
+        <v>478110.44042461447</v>
+      </c>
+      <c r="T77" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
       <c r="H78" s="1" t="str">
@@ -6140,7 +6192,10 @@
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="M78" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N78" s="5"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -6163,7 +6218,10 @@
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
+      <c r="M79" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N79" s="5"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -6186,7 +6244,10 @@
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
+      <c r="M80" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N80" s="5"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
@@ -6209,6 +6270,10 @@
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
+      <c r="M81" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N81" s="5"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
@@ -6231,6 +6296,10 @@
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
+      <c r="M82" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -6253,6 +6322,10 @@
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
+      <c r="M83" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N83" s="5"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
@@ -6275,6 +6348,10 @@
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
+      <c r="M84" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N84" s="5"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
@@ -6297,6 +6374,10 @@
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
+      <c r="M85" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N85" s="5"/>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
@@ -6319,6 +6400,10 @@
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
+      <c r="M86" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N86" s="5"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
@@ -6341,6 +6426,10 @@
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
+      <c r="M87" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N87" s="5"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
@@ -6363,6 +6452,10 @@
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
+      <c r="M88" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N88" s="5"/>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
@@ -6385,6 +6478,10 @@
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
+      <c r="M89" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N89" s="5"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
@@ -6407,6 +6504,10 @@
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
+      <c r="M90" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N90" s="5"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
@@ -6429,6 +6530,10 @@
       </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
+      <c r="M91" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N91" s="5"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
@@ -6451,6 +6556,10 @@
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
+      <c r="M92" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N92" s="5"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
@@ -6473,6 +6582,10 @@
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
+      <c r="M93" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N93" s="5"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
@@ -6495,6 +6608,10 @@
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
+      <c r="M94" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N94" s="5"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
@@ -6517,6 +6634,10 @@
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
+      <c r="M95" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N95" s="5"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
@@ -6539,6 +6660,10 @@
       </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
+      <c r="M96" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N96" s="5"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
@@ -6561,6 +6686,10 @@
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
+      <c r="M97" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N97" s="5"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
@@ -6583,6 +6712,10 @@
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
+      <c r="M98" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N98" s="5"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
@@ -6605,6 +6738,10 @@
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
+      <c r="M99" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N99" s="5"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
@@ -6627,6 +6764,10 @@
       </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
+      <c r="M100" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N100" s="5"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
@@ -6649,6 +6790,10 @@
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
+      <c r="M101" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N101" s="5"/>
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
@@ -6671,6 +6816,10 @@
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
+      <c r="M102" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N102" s="5"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
@@ -6693,6 +6842,10 @@
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
+      <c r="M103" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N103" s="5"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
@@ -6715,6 +6868,10 @@
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
+      <c r="M104" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N104" s="5"/>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
@@ -6737,6 +6894,10 @@
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
+      <c r="M105" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N105" s="5"/>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
@@ -6759,6 +6920,10 @@
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
+      <c r="M106" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N106" s="5"/>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
@@ -6781,6 +6946,10 @@
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
+      <c r="M107" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N107" s="5"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
@@ -6803,6 +6972,10 @@
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
+      <c r="M108" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N108" s="5"/>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
@@ -6825,6 +6998,10 @@
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
+      <c r="M109" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N109" s="5"/>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
@@ -6847,6 +7024,10 @@
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
+      <c r="M110" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N110" s="5"/>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
@@ -6869,6 +7050,10 @@
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
+      <c r="M111" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N111" s="5"/>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
@@ -6891,6 +7076,10 @@
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
+      <c r="M112" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N112" s="5"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
@@ -6913,6 +7102,10 @@
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
+      <c r="M113" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N113" s="5"/>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
@@ -6935,6 +7128,10 @@
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
+      <c r="M114" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N114" s="5"/>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
@@ -6957,6 +7154,10 @@
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
+      <c r="M115" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N115" s="5"/>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
@@ -6979,6 +7180,10 @@
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
+      <c r="M116" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N116" s="5"/>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
@@ -7001,6 +7206,10 @@
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
+      <c r="M117" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
       <c r="N117" s="5"/>
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B436BF-A8FD-4BD9-9E65-D309629E4860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3FF0DE8-35BE-45A6-8655-0F7B9374E455}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="302">
   <si>
     <t>NO</t>
   </si>
@@ -925,12 +924,18 @@
   </si>
   <si>
     <t>Admin Officer III</t>
+  </si>
+  <si>
+    <t>VIDA</t>
+  </si>
+  <si>
+    <t>FRANZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -1086,39 +1091,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE2E319-C616-45DC-8EAF-EC3655D4DB76}" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:U117" xr:uid="{8DE2E319-C616-45DC-8EAF-EC3655D4DB76}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:U117"/>
+  <sortState ref="A2:U73">
     <sortCondition ref="A1:A73"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{65E073B4-C5F8-45FC-8819-B83747BF4534}" name="NO" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{F1C2F67A-641F-495C-88E7-54103411CA02}" name="DATE CREATED" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{249D2B87-34C3-40CE-A791-77D0E1CE7FE9}" name="Column1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A36556C7-4482-4B0A-A816-EF17C4745CDE}" name="SALUTATION" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5B8FEFF0-4C72-4DA0-8394-99F7B08A81E8}" name="LASTNAME" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1A1170A9-B5DE-4714-A006-D89FB54F7329}" name="FIRSTNAME" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A90C806B-DD81-4FE4-B9BE-6AB2E5B70A57}" name="MIDDLE INITIAL" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{21B19EE1-D0F7-494B-BE26-3D77096C5746}" name="FULLNAME" dataDxfId="9">
+    <tableColumn id="1" name="NO" dataDxfId="16"/>
+    <tableColumn id="14" name="DATE CREATED" dataDxfId="15"/>
+    <tableColumn id="13" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" name="SALUTATION" dataDxfId="13"/>
+    <tableColumn id="3" name="LASTNAME" dataDxfId="12"/>
+    <tableColumn id="4" name="FIRSTNAME" dataDxfId="11"/>
+    <tableColumn id="5" name="MIDDLE INITIAL" dataDxfId="10"/>
+    <tableColumn id="6" name="FULLNAME" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7A585F99-4D88-40FF-86B7-9120F6E4BD7C}" name="POSITION"/>
-    <tableColumn id="8" xr3:uid="{E37954E5-FAE6-4C66-A9F2-AB58C71C124B}" name="OFFICE"/>
-    <tableColumn id="9" xr3:uid="{C46DE449-33FB-4439-940A-02AF1A1D0D23}" name="DATE EMPLOYMENT" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{7B3EB48B-0FC4-440B-BA35-10CE8EBB9301}" name="LASTDAY OF SERVICE" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D37695BA-AFDF-454C-A093-F6DD33247D21}" name="EFFECTIVITY DATE" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{3B339F67-4BDB-4BEA-A663-34D1C1B203FE}" name="MONTHLY SALARY" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{04882AAF-04A9-4B02-9519-88B5BC9AAC77}" name="VACATION LEAVE" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{E1D3DCDD-C82F-401A-93E2-C2D0989E7C96}" name="SICK LEAVE" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{B8613CFD-0F03-402D-82AB-FE683B50F697}" name="TOTAL LEAVE CREDITS" dataDxfId="2">
+    <tableColumn id="7" name="POSITION"/>
+    <tableColumn id="8" name="OFFICE"/>
+    <tableColumn id="9" name="DATE EMPLOYMENT" dataDxfId="8"/>
+    <tableColumn id="10" name="LASTDAY OF SERVICE" dataDxfId="7"/>
+    <tableColumn id="15" name="EFFECTIVITY DATE" dataDxfId="6"/>
+    <tableColumn id="17" name="MONTHLY SALARY" dataDxfId="5"/>
+    <tableColumn id="20" name="VACATION LEAVE" dataDxfId="4"/>
+    <tableColumn id="19" name="SICK LEAVE" dataDxfId="3"/>
+    <tableColumn id="21" name="TOTAL LEAVE CREDITS" dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A7FDD743-5329-40A9-A9B7-72ADD867E98B}" name="CONSTANT FACTOR" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{5E7A35D9-6001-4E00-B0E9-5A93B3D31135}" name="TOTAL LEAVE BENEFITS" dataDxfId="0">
+    <tableColumn id="18" name="CONSTANT FACTOR" dataDxfId="1"/>
+    <tableColumn id="22" name="TOTAL LEAVE BENEFITS" dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N2,Q2:R2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D0CDE431-8271-4D9C-B02C-83761E2E8971}" name="REASON"/>
-    <tableColumn id="12" xr3:uid="{D523A21B-925F-4C98-9410-4A2E0175CF19}" name="REMARKS"/>
+    <tableColumn id="11" name="REASON"/>
+    <tableColumn id="12" name="REMARKS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,29 +1425,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92F157-0F66-44CB-99F7-25952B2CE2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="24.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="24.6640625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="24.6640625" customWidth="1"/>
-    <col min="18" max="20" width="24.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="20" width="24.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1564,7 +1569,7 @@
       </c>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1689,7 +1694,7 @@
       </c>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1746,7 +1751,7 @@
       </c>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1803,7 +1808,7 @@
       </c>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1860,7 +1865,7 @@
       </c>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1919,7 +1924,7 @@
       </c>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1976,7 +1981,7 @@
       </c>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2031,7 +2036,7 @@
       </c>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2088,7 +2093,7 @@
       </c>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2202,7 +2207,7 @@
       </c>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2259,7 +2264,7 @@
       </c>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2316,7 +2321,7 @@
       </c>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2501,7 +2506,7 @@
       </c>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2558,7 +2563,7 @@
       </c>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2617,7 +2622,7 @@
       </c>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2806,7 +2811,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2932,7 +2937,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2991,7 +2996,7 @@
       </c>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3233,7 +3238,7 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3422,7 +3427,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3608,7 +3613,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3730,7 +3735,7 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4041,7 +4046,7 @@
       </c>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4104,7 +4109,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4293,7 +4298,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4730,7 +4735,7 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4856,7 +4861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5162,7 +5167,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5288,7 +5293,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5414,7 +5419,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5477,7 +5482,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5600,7 +5605,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5728,7 +5733,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5858,7 +5863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5919,7 +5924,7 @@
       </c>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5984,7 +5989,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6180,15 +6185,37 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="4">
+        <v>45014</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>FRANZ R. VIDA</v>
+      </c>
+      <c r="I78" t="s">
+        <v>208</v>
+      </c>
+      <c r="J78" t="s">
+        <v>260</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -6208,7 +6235,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
@@ -6234,7 +6261,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -6260,7 +6287,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -6286,7 +6313,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
@@ -6312,7 +6339,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
@@ -6338,7 +6365,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
@@ -6364,7 +6391,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
@@ -6390,7 +6417,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -6416,7 +6443,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
@@ -6442,7 +6469,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
@@ -6468,7 +6495,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
@@ -6494,7 +6521,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
@@ -6520,7 +6547,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
@@ -6546,7 +6573,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
@@ -6572,7 +6599,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
@@ -6598,7 +6625,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
@@ -6624,7 +6651,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -6650,7 +6677,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
@@ -6676,7 +6703,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
@@ -6702,7 +6729,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
@@ -6728,7 +6755,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
@@ -6754,7 +6781,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
@@ -6780,7 +6807,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
@@ -6806,7 +6833,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="2"/>
@@ -6832,7 +6859,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -6858,7 +6885,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="2"/>
@@ -6884,7 +6911,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
@@ -6910,7 +6937,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="2"/>
@@ -6936,7 +6963,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="2"/>
@@ -6962,7 +6989,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="2"/>
@@ -6988,7 +7015,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
@@ -7014,7 +7041,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="2"/>
@@ -7040,7 +7067,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="2"/>
@@ -7066,7 +7093,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="2"/>
@@ -7092,7 +7119,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
@@ -7118,7 +7145,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="2"/>
@@ -7144,7 +7171,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="2"/>
@@ -7170,7 +7197,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="2"/>
@@ -7196,7 +7223,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
@@ -7225,10 +7252,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117" xr:uid="{DA97BEE9-3758-457F-95C8-B8934936C78F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117">
       <formula1>"MR, MS,MRS,DR,ATTY,ENGR, HON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117" xr:uid="{01C404F5-9B57-47B2-AF64-C61726E2814E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117">
       <formula1>"his, her"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="302">
   <si>
     <t>NO</t>
   </si>
@@ -872,15 +872,9 @@
     <t>his death</t>
   </si>
   <si>
-    <t>End of her term</t>
-  </si>
-  <si>
     <t>his optional retirement</t>
   </si>
   <si>
-    <t>End of his term</t>
-  </si>
-  <si>
     <t>his compulsory retiremenet</t>
   </si>
   <si>
@@ -930,6 +924,12 @@
   </si>
   <si>
     <t>FRANZ</t>
+  </si>
+  <si>
+    <t>end of his term</t>
+  </si>
+  <si>
+    <t>end of her term</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T67" activeCellId="5" sqref="T35 T36 T52 T53 T57 T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>15</v>
@@ -2381,7 +2381,7 @@
         <v>154025.966546304</v>
       </c>
       <c r="T16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>25397.693429913204</v>
       </c>
       <c r="T17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
         <v>60363.060217366903</v>
       </c>
       <c r="T21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2745,7 +2745,7 @@
         <v>32411.192964504196</v>
       </c>
       <c r="T22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>2955037.3483014335</v>
       </c>
       <c r="T24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>61868.830381894804</v>
       </c>
       <c r="T28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3179,7 +3179,7 @@
         <v>47962.579857500001</v>
       </c>
       <c r="T29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>446804.29758919508</v>
       </c>
       <c r="T31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3361,7 +3361,7 @@
         <v>27224.829433678799</v>
       </c>
       <c r="T32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>2592934.7778252</v>
       </c>
       <c r="T33" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>229362.31229249999</v>
       </c>
       <c r="T34" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>206920.31985231899</v>
       </c>
       <c r="T35" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
         <v>88651.926876769197</v>
       </c>
       <c r="T36" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>34533.057497399997</v>
       </c>
       <c r="T37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>1707912.3049220201</v>
       </c>
       <c r="T39" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>444025.33195323561</v>
       </c>
       <c r="T41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3984,7 +3984,7 @@
         <v>28805.6463790788</v>
       </c>
       <c r="T42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
         <v>24191.289426229199</v>
       </c>
       <c r="T44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
         <v>66898.455541499992</v>
       </c>
       <c r="T45" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>52808.170782532005</v>
       </c>
       <c r="T46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>67135.3045415448</v>
       </c>
       <c r="T47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4421,7 +4421,7 @@
         <v>156379.57897833502</v>
       </c>
       <c r="T49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>80190.532321199993</v>
       </c>
       <c r="T50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>40837.771089499998</v>
       </c>
       <c r="T51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>65475.084146999994</v>
       </c>
       <c r="T52" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>183360.2907479915</v>
       </c>
       <c r="T53" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
         <v>47682.941715749999</v>
       </c>
       <c r="T56" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
         <v>61031.462074846197</v>
       </c>
       <c r="T57" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5038,7 +5038,7 @@
         <v>-------</v>
       </c>
       <c r="T59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
         <v>1131398.813112</v>
       </c>
       <c r="T61" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5227,7 +5227,7 @@
         <v>65095.898007505195</v>
       </c>
       <c r="T62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5290,7 +5290,7 @@
         <v>109333.30861265</v>
       </c>
       <c r="T63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>84914.058896156697</v>
       </c>
       <c r="T65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
         <v>83665.185894873604</v>
       </c>
       <c r="T66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>130249.8319776</v>
       </c>
       <c r="T67" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5602,7 +5602,7 @@
         <v>424385.32056241028</v>
       </c>
       <c r="T68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5665,7 +5665,7 @@
         <v>50657.254629836796</v>
       </c>
       <c r="T69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5730,7 +5730,7 @@
         <v>366331.52539514279</v>
       </c>
       <c r="T70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
         <v>579102.25425664999</v>
       </c>
       <c r="T71" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5860,7 +5860,7 @@
         <v>51805.023973019102</v>
       </c>
       <c r="T72" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5938,10 +5938,10 @@
         <v>23</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>104</v>
@@ -5954,7 +5954,7 @@
         <v>208</v>
       </c>
       <c r="J74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K74" s="8">
         <v>38173</v>
@@ -5986,7 +5986,7 @@
         <v>72355.092119455192</v>
       </c>
       <c r="T74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>LEO ANGELO T. DE CASTRO</v>
       </c>
       <c r="I75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J75" t="s">
         <v>197</v>
@@ -6052,7 +6052,7 @@
         <v>132932.477177319</v>
       </c>
       <c r="T75" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>189</v>
       </c>
       <c r="J76" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K76" s="8">
         <v>34685</v>
@@ -6118,7 +6118,7 @@
         <v>187271.27799132504</v>
       </c>
       <c r="T76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6135,10 +6135,10 @@
         <v>23</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>99</v>
@@ -6148,7 +6148,7 @@
         <v>WILMER B. TIBAYAN</v>
       </c>
       <c r="I77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J77" t="s">
         <v>261</v>
@@ -6182,7 +6182,7 @@
         <v>478110.44042461447</v>
       </c>
       <c r="T77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>274</v>
@@ -6199,10 +6199,10 @@
         <v>23</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>113</v>
@@ -6217,22 +6217,38 @@
       <c r="J78" t="s">
         <v>260</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8" t="str">
+      <c r="K78" s="8">
+        <v>42891</v>
+      </c>
+      <c r="L78" s="8">
+        <v>44742</v>
+      </c>
+      <c r="M78" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
+        <v>44743</v>
+      </c>
+      <c r="N78" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O78" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="P78" s="7">
+        <v>65.5</v>
+      </c>
       <c r="Q78" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S78" s="6" t="str">
+        <v>113</v>
+      </c>
+      <c r="R78" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S78" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N78,Q78:R78))</f>
-        <v>-------</v>
+        <v>64336.387031399994</v>
+      </c>
+      <c r="T78" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787882C-BFF0-4A7D-9E31-44CB220181C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="2964" yWindow="2520" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -935,7 +936,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -1091,39 +1092,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:U117"/>
-  <sortState ref="A2:U73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:U117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
     <sortCondition ref="A1:A73"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="NO" dataDxfId="16"/>
-    <tableColumn id="14" name="DATE CREATED" dataDxfId="15"/>
-    <tableColumn id="13" name="Column1" dataDxfId="14"/>
-    <tableColumn id="2" name="SALUTATION" dataDxfId="13"/>
-    <tableColumn id="3" name="LASTNAME" dataDxfId="12"/>
-    <tableColumn id="4" name="FIRSTNAME" dataDxfId="11"/>
-    <tableColumn id="5" name="MIDDLE INITIAL" dataDxfId="10"/>
-    <tableColumn id="6" name="FULLNAME" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DATE CREATED" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SALUTATION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LASTNAME" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FIRSTNAME" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MIDDLE INITIAL" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FULLNAME" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="POSITION"/>
-    <tableColumn id="8" name="OFFICE"/>
-    <tableColumn id="9" name="DATE EMPLOYMENT" dataDxfId="8"/>
-    <tableColumn id="10" name="LASTDAY OF SERVICE" dataDxfId="7"/>
-    <tableColumn id="15" name="EFFECTIVITY DATE" dataDxfId="6"/>
-    <tableColumn id="17" name="MONTHLY SALARY" dataDxfId="5"/>
-    <tableColumn id="20" name="VACATION LEAVE" dataDxfId="4"/>
-    <tableColumn id="19" name="SICK LEAVE" dataDxfId="3"/>
-    <tableColumn id="21" name="TOTAL LEAVE CREDITS" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="POSITION"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OFFICE"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DATE EMPLOYMENT" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="LASTDAY OF SERVICE" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="EFFECTIVITY DATE" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MONTHLY SALARY" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="VACATION LEAVE" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SICK LEAVE" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="TOTAL LEAVE CREDITS" dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="CONSTANT FACTOR" dataDxfId="1"/>
-    <tableColumn id="22" name="TOTAL LEAVE BENEFITS" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="CONSTANT FACTOR" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="TOTAL LEAVE BENEFITS" dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N2,Q2:R2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="REASON"/>
-    <tableColumn id="12" name="REMARKS"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REASON"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="REMARKS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1425,29 +1426,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T67" activeCellId="5" sqref="T35 T36 T52 T53 T57 T67"/>
+    <sheetView tabSelected="1" topLeftCell="Q67" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="24.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="24.7109375" customWidth="1"/>
-    <col min="18" max="20" width="24.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="24.6640625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="24.6640625" customWidth="1"/>
+    <col min="18" max="20" width="24.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1694,7 +1695,7 @@
       </c>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1751,7 +1752,7 @@
       </c>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1808,7 +1809,7 @@
       </c>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1865,7 +1866,7 @@
       </c>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2036,7 +2037,7 @@
       </c>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2093,7 +2094,7 @@
       </c>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2207,7 +2208,7 @@
       </c>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2264,7 +2265,7 @@
       </c>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2321,7 +2322,7 @@
       </c>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2506,7 +2507,7 @@
       </c>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2563,7 +2564,7 @@
       </c>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2622,7 +2623,7 @@
       </c>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2996,7 +2997,7 @@
       </c>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3735,7 +3736,7 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4046,7 +4047,7 @@
       </c>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4735,7 +4736,7 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5924,7 +5925,7 @@
       </c>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
@@ -6265,19 +6266,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>---</v>
       </c>
-      <c r="N79" s="5"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
+      <c r="N79" s="5">
+        <v>12092</v>
+      </c>
+      <c r="O79" s="7">
+        <v>77.486000000000004</v>
+      </c>
+      <c r="P79" s="7">
+        <v>340.65</v>
+      </c>
       <c r="Q79" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S79" s="6" t="str">
+        <v>418.13599999999997</v>
+      </c>
+      <c r="R79" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S79" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N79,Q79:R79))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>243667.13514466234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -6291,19 +6301,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>---</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+      <c r="N80" s="5">
+        <v>18212</v>
+      </c>
+      <c r="O80" s="7">
+        <v>59.746000000000151</v>
+      </c>
+      <c r="P80" s="7">
+        <v>268.98199999999997</v>
+      </c>
       <c r="Q80" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S80" s="6" t="str">
+        <v>328.72800000000012</v>
+      </c>
+      <c r="R80" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S80" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N80,Q80:R80))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>288519.78339654731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -6317,19 +6336,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>---</v>
       </c>
-      <c r="N81" s="5"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
+      <c r="N81" s="5">
+        <v>12192</v>
+      </c>
+      <c r="O81" s="7">
+        <v>251</v>
+      </c>
+      <c r="P81" s="7">
+        <v>261</v>
+      </c>
       <c r="Q81" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S81" s="6" t="str">
+        <v>512</v>
+      </c>
+      <c r="R81" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S81" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N81,Q81:R81))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>300833.48398079997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
@@ -6355,7 +6383,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
@@ -6381,7 +6409,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
@@ -6407,7 +6435,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
@@ -6433,7 +6461,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -6459,7 +6487,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
@@ -6485,7 +6513,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
@@ -6511,7 +6539,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
@@ -6537,7 +6565,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
@@ -6563,7 +6591,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
@@ -6589,7 +6617,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
@@ -6615,7 +6643,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
@@ -6641,7 +6669,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
@@ -6667,7 +6695,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -6693,7 +6721,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
@@ -6719,7 +6747,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
@@ -6745,7 +6773,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
@@ -6771,7 +6799,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
@@ -6797,7 +6825,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
@@ -6823,7 +6851,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
@@ -6849,7 +6877,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="2"/>
@@ -6875,7 +6903,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -6901,7 +6929,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="2"/>
@@ -6927,7 +6955,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
@@ -6953,7 +6981,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="2"/>
@@ -6979,7 +7007,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="2"/>
@@ -7005,7 +7033,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="2"/>
@@ -7031,7 +7059,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
@@ -7057,7 +7085,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="2"/>
@@ -7083,7 +7111,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="2"/>
@@ -7109,7 +7137,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="2"/>
@@ -7135,7 +7163,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
@@ -7161,7 +7189,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="2"/>
@@ -7187,7 +7215,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="2"/>
@@ -7213,7 +7241,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="2"/>
@@ -7239,7 +7267,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
@@ -7268,10 +7296,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MR, MS,MRS,DR,ATTY,ENGR, HON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"his, her"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787882C-BFF0-4A7D-9E31-44CB220181C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6362A5F4-C75E-43F7-9DD1-627AC34F5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2520" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
   <si>
     <t>NO</t>
   </si>
@@ -931,6 +931,18 @@
   </si>
   <si>
     <t>end of her term</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>MA. CARMELA</t>
+  </si>
+  <si>
+    <t>Casual Medical Technologist</t>
+  </si>
+  <si>
+    <t>Ospital ng Tagaytay</t>
   </si>
 </sst>
 </file>
@@ -1429,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q67" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="N67" workbookViewId="0">
+      <selection activeCell="T80" sqref="T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6254,37 +6266,66 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="4">
+        <v>45064</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8" t="str">
+        <v>MA. CARMELA D. ARELLANO</v>
+      </c>
+      <c r="I79" t="s">
+        <v>304</v>
+      </c>
+      <c r="J79" t="s">
+        <v>305</v>
+      </c>
+      <c r="K79" s="8">
+        <v>42828</v>
+      </c>
+      <c r="L79" s="8">
+        <v>44592</v>
+      </c>
+      <c r="M79" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
+        <v>44593</v>
       </c>
       <c r="N79" s="5">
-        <v>12092</v>
+        <v>24167</v>
       </c>
       <c r="O79" s="7">
-        <v>77.486000000000004</v>
+        <v>41.25</v>
       </c>
       <c r="P79" s="7">
-        <v>340.65</v>
+        <v>61.25</v>
       </c>
       <c r="Q79" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>418.13599999999997</v>
+        <v>102.5</v>
       </c>
       <c r="R79" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="S79" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N79,Q79:R79))</f>
-        <v>243667.13514466234</v>
+        <v>119378.98054224999</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -6301,25 +6342,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>---</v>
       </c>
-      <c r="N80" s="5">
-        <v>18212</v>
-      </c>
-      <c r="O80" s="7">
-        <v>59.746000000000151</v>
-      </c>
-      <c r="P80" s="7">
-        <v>268.98199999999997</v>
-      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
       <c r="Q80" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>328.72800000000012</v>
+        <v>0</v>
       </c>
       <c r="R80" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="6" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N80,Q80:R80))</f>
-        <v>288519.78339654731</v>
+        <v>-------</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -6336,25 +6371,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>---</v>
       </c>
-      <c r="N81" s="5">
-        <v>12192</v>
-      </c>
-      <c r="O81" s="7">
-        <v>251</v>
-      </c>
-      <c r="P81" s="7">
-        <v>261</v>
-      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
       <c r="Q81" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="6" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N81,Q81:R81))</f>
-        <v>300833.48398079997</v>
+        <v>-------</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6362A5F4-C75E-43F7-9DD1-627AC34F5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B0581-A5A1-4388-B275-67672C8EFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="309">
   <si>
     <t>NO</t>
   </si>
@@ -943,6 +943,15 @@
   </si>
   <si>
     <t>Ospital ng Tagaytay</t>
+  </si>
+  <si>
+    <t>GARRY</t>
+  </si>
+  <si>
+    <t>LEGASPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his resignation </t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,6 +1031,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1114,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:U117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U85" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:U85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
     <sortCondition ref="A1:A73"/>
   </sortState>
@@ -1439,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U117"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N67" workbookViewId="0">
-      <selection activeCell="T80" sqref="T80"/>
+    <sheetView tabSelected="1" topLeftCell="L76" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,6 +1594,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -1652,6 +1663,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -1709,6 +1721,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A4+1)</f>
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -1766,6 +1779,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A5+1)</f>
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -1823,6 +1837,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A6+1)</f>
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -1880,6 +1895,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A7+1)</f>
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -1939,6 +1955,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A8+1)</f>
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -1996,6 +2013,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A9+1)</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2051,6 +2069,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A10+1)</f>
         <v>10</v>
       </c>
       <c r="B11" s="4">
@@ -2108,6 +2127,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A11+1)</f>
         <v>11</v>
       </c>
       <c r="B12" s="4">
@@ -2165,6 +2185,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A12+1)</f>
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -2222,6 +2243,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A13+1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="4">
@@ -2279,6 +2301,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A14+1)</f>
         <v>14</v>
       </c>
       <c r="B15" s="4">
@@ -2336,6 +2359,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A15+1)</f>
         <v>15</v>
       </c>
       <c r="B16" s="4">
@@ -2396,9 +2420,13 @@
       <c r="T16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A16+1)</f>
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -2459,9 +2487,13 @@
       <c r="T17" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A17+1)</f>
         <v>17</v>
       </c>
       <c r="B18" s="4">
@@ -2519,8 +2551,9 @@
       </c>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A18+1)</f>
         <v>18</v>
       </c>
       <c r="B19" s="4">
@@ -2576,8 +2609,9 @@
       </c>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A19+1)</f>
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -2635,8 +2669,9 @@
       </c>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A20+1)</f>
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -2697,9 +2732,13 @@
       <c r="T21" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A21+1)</f>
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -2760,9 +2799,13 @@
       <c r="T22" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A22+1)</f>
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -2823,9 +2866,13 @@
       <c r="T23" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A23+1)</f>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -2886,9 +2933,13 @@
       <c r="T24" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A24+1)</f>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -2949,9 +3000,13 @@
       <c r="T25" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A25+1)</f>
         <v>25</v>
       </c>
       <c r="B26" s="4">
@@ -3009,8 +3064,9 @@
       </c>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A26+1)</f>
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3071,9 +3127,13 @@
       <c r="T27" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A27+1)</f>
         <v>27</v>
       </c>
       <c r="B28" s="4">
@@ -3131,9 +3191,13 @@
       <c r="T28" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A28+1)</f>
         <v>28</v>
       </c>
       <c r="B29" s="4">
@@ -3194,9 +3258,13 @@
       <c r="T29" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A29+1)</f>
         <v>29</v>
       </c>
       <c r="B30" s="4">
@@ -3251,8 +3319,9 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A30+1)</f>
         <v>30</v>
       </c>
       <c r="B31" s="4">
@@ -3313,9 +3382,13 @@
       <c r="T31" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A31+1)</f>
         <v>31</v>
       </c>
       <c r="B32" s="4">
@@ -3376,9 +3449,13 @@
       <c r="T32" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A32+1)</f>
         <v>32</v>
       </c>
       <c r="B33" s="4">
@@ -3439,9 +3516,13 @@
       <c r="T33" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A33+1)</f>
         <v>33</v>
       </c>
       <c r="B34" s="4">
@@ -3502,9 +3583,13 @@
       <c r="T34" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A34+1)</f>
         <v>34</v>
       </c>
       <c r="B35" s="4">
@@ -3565,9 +3650,13 @@
       <c r="T35" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A35+1)</f>
         <v>35</v>
       </c>
       <c r="B36" s="4">
@@ -3625,9 +3714,13 @@
       <c r="T36" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A36+1)</f>
         <v>36</v>
       </c>
       <c r="B37" s="4">
@@ -3688,9 +3781,13 @@
       <c r="T37" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A37+1)</f>
         <v>37</v>
       </c>
       <c r="B38" s="4">
@@ -3748,8 +3845,9 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A38+1)</f>
         <v>38</v>
       </c>
       <c r="B39" s="4">
@@ -3810,9 +3908,13 @@
       <c r="T39" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A39+1)</f>
         <v>39</v>
       </c>
       <c r="B40" s="4">
@@ -3873,9 +3975,13 @@
       <c r="T40" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A40+1)</f>
         <v>40</v>
       </c>
       <c r="B41" s="4">
@@ -3936,9 +4042,13 @@
       <c r="T41" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A41+1)</f>
         <v>41</v>
       </c>
       <c r="B42" s="4">
@@ -3999,9 +4109,13 @@
       <c r="T42" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A42+1)</f>
         <v>42</v>
       </c>
       <c r="B43" s="4">
@@ -4059,8 +4173,9 @@
       </c>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A43+1)</f>
         <v>43</v>
       </c>
       <c r="B44" s="4">
@@ -4121,9 +4236,13 @@
       <c r="T44" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A44+1)</f>
         <v>44</v>
       </c>
       <c r="B45" s="4">
@@ -4184,9 +4303,13 @@
       <c r="T45" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A45+1)</f>
         <v>45</v>
       </c>
       <c r="B46" s="4">
@@ -4247,9 +4370,13 @@
       <c r="T46" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A46+1)</f>
         <v>46</v>
       </c>
       <c r="B47" s="4">
@@ -4310,9 +4437,13 @@
       <c r="T47" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A47+1)</f>
         <v>47</v>
       </c>
       <c r="B48" s="4">
@@ -4373,9 +4504,13 @@
       <c r="T48" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A48+1)</f>
         <v>48</v>
       </c>
       <c r="B49" s="4">
@@ -4436,9 +4571,13 @@
       <c r="T49" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A49+1)</f>
         <v>49</v>
       </c>
       <c r="B50" s="4">
@@ -4499,9 +4638,13 @@
       <c r="T50" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A50+1)</f>
         <v>50</v>
       </c>
       <c r="B51" s="4">
@@ -4562,9 +4705,13 @@
       <c r="T51" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A51+1)</f>
         <v>51</v>
       </c>
       <c r="B52" s="4">
@@ -4625,9 +4772,13 @@
       <c r="T52" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A52+1)</f>
         <v>52</v>
       </c>
       <c r="B53" s="4">
@@ -4688,9 +4839,13 @@
       <c r="T53" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A53+1)</f>
         <v>53</v>
       </c>
       <c r="B54" s="4">
@@ -4748,8 +4903,9 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A54+1)</f>
         <v>54</v>
       </c>
       <c r="B55" s="4">
@@ -4810,9 +4966,13 @@
       <c r="T55" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A55+1)</f>
         <v>55</v>
       </c>
       <c r="B56" s="4">
@@ -4873,9 +5033,13 @@
       <c r="T56" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A56+1)</f>
         <v>56</v>
       </c>
       <c r="B57" s="4">
@@ -4936,9 +5100,13 @@
       <c r="T57" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A57+1)</f>
         <v>57</v>
       </c>
       <c r="B58" s="4">
@@ -4999,13 +5167,17 @@
       <c r="T58" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A58+1)</f>
         <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>44860</v>
+        <v>45082</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
@@ -5035,27 +5207,42 @@
       <c r="K59" s="8">
         <v>34652</v>
       </c>
-      <c r="L59" s="8"/>
+      <c r="L59" s="8">
+        <v>44865</v>
+      </c>
       <c r="M59" s="8">
-        <v>44865</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
+        <v>44866</v>
+      </c>
+      <c r="N59" s="5">
+        <v>13419</v>
+      </c>
+      <c r="O59" s="7">
+        <v>137.86799999999999</v>
+      </c>
+      <c r="P59" s="7">
+        <v>188.06299999999999</v>
+      </c>
       <c r="Q59" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="6" t="str">
+        <v>325.93099999999998</v>
+      </c>
+      <c r="R59" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S59" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N59,Q59:R59))</f>
-        <v>-------</v>
+        <v>210778.87411275029</v>
       </c>
       <c r="T59" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A59+1)</f>
         <v>59</v>
       </c>
       <c r="B60" s="4">
@@ -5116,9 +5303,13 @@
       <c r="T60" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A60+1)</f>
         <v>60</v>
       </c>
       <c r="B61" s="4">
@@ -5179,9 +5370,13 @@
       <c r="T61" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A61+1)</f>
         <v>61</v>
       </c>
       <c r="B62" s="4">
@@ -5242,9 +5437,13 @@
       <c r="T62" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A62+1)</f>
         <v>62</v>
       </c>
       <c r="B63" s="4">
@@ -5305,9 +5504,13 @@
       <c r="T63" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A63+1)</f>
         <v>63</v>
       </c>
       <c r="B64" s="4">
@@ -5368,9 +5571,13 @@
       <c r="T64" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A64+1)</f>
         <v>64</v>
       </c>
       <c r="B65" s="4">
@@ -5431,9 +5638,13 @@
       <c r="T65" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A65+1)</f>
         <v>65</v>
       </c>
       <c r="B66" s="4">
@@ -5494,9 +5705,13 @@
       <c r="T66" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A66+1)</f>
         <v>66</v>
       </c>
       <c r="B67" s="4">
@@ -5557,9 +5772,13 @@
       <c r="T67" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A67+1)</f>
         <v>67</v>
       </c>
       <c r="B68" s="4">
@@ -5617,9 +5836,13 @@
       <c r="T68" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A68+1)</f>
         <v>68</v>
       </c>
       <c r="B69" s="4">
@@ -5680,9 +5903,13 @@
       <c r="T69" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A69+1)</f>
         <v>69</v>
       </c>
       <c r="B70" s="4">
@@ -5745,9 +5972,13 @@
       <c r="T70" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A70+1)</f>
         <v>70</v>
       </c>
       <c r="B71" s="4">
@@ -5810,9 +6041,13 @@
       <c r="T71" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A71+1)</f>
         <v>71</v>
       </c>
       <c r="B72" s="4">
@@ -5875,9 +6110,13 @@
       <c r="T72" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A72+1)</f>
         <v>72</v>
       </c>
       <c r="B73" s="4">
@@ -5936,9 +6175,11 @@
         <v>32221.842689579396</v>
       </c>
       <c r="T73"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73" s="9"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A73+1)</f>
         <v>73</v>
       </c>
       <c r="B74" s="4">
@@ -6001,9 +6242,13 @@
       <c r="T74" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A74+1)</f>
         <v>74</v>
       </c>
       <c r="B75" s="4">
@@ -6067,9 +6312,13 @@
       <c r="T75" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A75+1)</f>
         <v>75</v>
       </c>
       <c r="B76" s="4">
@@ -6133,9 +6382,13 @@
       <c r="T76" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U76" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A76+1)</f>
         <v>76</v>
       </c>
       <c r="B77" s="4">
@@ -6197,9 +6450,13 @@
       <c r="T77" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A77+1)</f>
         <v>77</v>
       </c>
       <c r="B78" s="4">
@@ -6263,9 +6520,15 @@
       <c r="T78" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
+      <c r="U78" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A78+1)</f>
+        <v>78</v>
+      </c>
       <c r="B79" s="4">
         <v>45064</v>
       </c>
@@ -6327,38 +6590,85 @@
       <c r="T79" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="2"/>
+      <c r="U79" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A79+1)</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45079</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="H80" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8" t="str">
+        <v>GARRY L. BAYOT</v>
+      </c>
+      <c r="I80" t="s">
+        <v>208</v>
+      </c>
+      <c r="J80" t="s">
+        <v>260</v>
+      </c>
+      <c r="K80" s="8">
+        <v>37865</v>
+      </c>
+      <c r="L80" s="8">
+        <v>44742</v>
+      </c>
+      <c r="M80" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+        <v>44743</v>
+      </c>
+      <c r="N80" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O80" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="P80" s="7">
+        <v>67.5</v>
+      </c>
       <c r="Q80" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="R80" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
-      <c r="S80" s="6" t="str">
+      <c r="S80" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N80,Q80:R80))</f>
-        <v>-------</v>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U80" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A80+1)</f>
+        <v/>
+      </c>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
       <c r="H81" s="1" t="str">
@@ -6387,7 +6697,10 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A81+1)</f>
+        <v/>
+      </c>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
       <c r="H82" s="1" t="str">
@@ -6413,7 +6726,10 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A82+1)</f>
+        <v/>
+      </c>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
       <c r="H83" s="1" t="str">
@@ -6439,7 +6755,10 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A83+1)</f>
+        <v/>
+      </c>
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
       <c r="H84" s="1" t="str">
@@ -6465,7 +6784,10 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A84+1)</f>
+        <v/>
+      </c>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
       <c r="H85" s="1" t="str">
@@ -6490,845 +6812,13 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="2"/>
-      <c r="H86" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N86" s="5"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N86,Q86:R86))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="2"/>
-      <c r="H87" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S87" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N87,Q87:R87))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="2"/>
-      <c r="H88" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N88" s="5"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S88" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N88,Q88:R88))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="2"/>
-      <c r="H89" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N89" s="5"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S89" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N89,Q89:R89))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="2"/>
-      <c r="H90" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S90" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N90,Q90:R90))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="2"/>
-      <c r="H91" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S91" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N91,Q91:R91))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="2"/>
-      <c r="H92" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S92" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N92,Q92:R92))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="2"/>
-      <c r="H93" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N93" s="5"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S93" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N93,Q93:R93))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="2"/>
-      <c r="H94" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N94,Q94:R94))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="2"/>
-      <c r="H95" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N95" s="5"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S95" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N95,Q95:R95))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="2"/>
-      <c r="H96" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N96,Q96:R96))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="2"/>
-      <c r="H97" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N97" s="5"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S97" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N97,Q97:R97))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
-      <c r="H98" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S98" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N98,Q98:R98))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="2"/>
-      <c r="H99" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S99" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N99,Q99:R99))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="2"/>
-      <c r="H100" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N100" s="5"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S100" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N100,Q100:R100))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
-      <c r="H101" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S101" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N101,Q101:R101))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="2"/>
-      <c r="H102" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N102" s="5"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S102" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N102,Q102:R102))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="2"/>
-      <c r="H103" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S103" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N103,Q103:R103))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="2"/>
-      <c r="H104" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S104" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N104,Q104:R104))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="2"/>
-      <c r="H105" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N105" s="5"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S105" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N105,Q105:R105))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="2"/>
-      <c r="H106" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S106" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N106,Q106:R106))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="2"/>
-      <c r="H107" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N107" s="5"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S107" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N107,Q107:R107))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="2"/>
-      <c r="H108" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N108" s="5"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S108" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N108,Q108:R108))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="2"/>
-      <c r="H109" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S109" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N109,Q109:R109))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="2"/>
-      <c r="H110" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N110" s="5"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S110" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N110,Q110:R110))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="2"/>
-      <c r="H111" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N111" s="5"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S111" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N111,Q111:R111))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="2"/>
-      <c r="H112" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N112" s="5"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S112" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N112,Q112:R112))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="2"/>
-      <c r="H113" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N113" s="5"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S113" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N113,Q113:R113))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="2"/>
-      <c r="H114" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N114" s="5"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S114" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N114,Q114:R114))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="2"/>
-      <c r="H115" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S115" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N115,Q115:R115))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="2"/>
-      <c r="H116" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N116" s="5"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S116" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N116,Q116:R116))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="2"/>
-      <c r="H117" s="1" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N117" s="5"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7">
-        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S117" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N117,Q117:R117))</f>
-        <v>-------</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D85" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MR, MS,MRS,DR,ATTY,ENGR, HON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C85" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"his, her"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B0581-A5A1-4388-B275-67672C8EFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE2E50-1BE8-4818-AE8D-EC276CE4812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="315">
   <si>
     <t>NO</t>
   </si>
@@ -952,6 +952,24 @@
   </si>
   <si>
     <t xml:space="preserve">his resignation </t>
+  </si>
+  <si>
+    <t>Admin Aide I</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>ADELAIDA</t>
+  </si>
+  <si>
+    <t>CREUS</t>
+  </si>
+  <si>
+    <t>Community Affairs Asst II</t>
+  </si>
+  <si>
+    <t>Community/Brgy. Affair's Office</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L76" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6664,68 +6682,137 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="str">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A80+1)</f>
-        <v/>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45093</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H81" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>JUANITO A. ANGCAYA</v>
+      </c>
+      <c r="I81" t="s">
+        <v>309</v>
+      </c>
+      <c r="J81" t="s">
+        <v>227</v>
       </c>
       <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8" t="str">
+      <c r="L81" s="8">
+        <v>45062</v>
+      </c>
+      <c r="M81" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N81" s="5"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
+        <v>45063</v>
+      </c>
+      <c r="N81" s="5">
+        <v>12092</v>
+      </c>
+      <c r="O81" s="7">
+        <v>77.485999999999947</v>
+      </c>
+      <c r="P81" s="7">
+        <v>340.65</v>
+      </c>
       <c r="Q81" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
+        <v>418.13599999999991</v>
       </c>
       <c r="R81" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
-      <c r="S81" s="6" t="str">
+      <c r="S81" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N81,Q81:R81))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="str">
+        <v>243667.13514466234</v>
+      </c>
+      <c r="T81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A81+1)</f>
-        <v/>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45093</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="H82" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>ADELAIDA C. LUCIANO</v>
+      </c>
+      <c r="I82" t="s">
+        <v>313</v>
+      </c>
+      <c r="J82" t="s">
+        <v>314</v>
       </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8" t="str">
+      <c r="L82" s="8">
+        <v>45088</v>
+      </c>
+      <c r="M82" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+        <v>45089</v>
+      </c>
+      <c r="N82" s="5">
+        <v>18212</v>
+      </c>
+      <c r="O82" s="7">
+        <v>58.746000000000038</v>
+      </c>
+      <c r="P82" s="7">
+        <v>267.98200000000003</v>
+      </c>
       <c r="Q82" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S82" s="6" t="str">
+        <v>326.72800000000007</v>
+      </c>
+      <c r="R82" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S82" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N82,Q82:R82))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+        <v>286764.41249174724</v>
+      </c>
+      <c r="T82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A82+1)</f>
         <v/>
@@ -6754,7 +6841,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A83+1)</f>
         <v/>
@@ -6783,7 +6870,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A84+1)</f>
         <v/>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE2E50-1BE8-4818-AE8D-EC276CE4812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C62D7-A816-4D87-952D-2AF07AC5AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="N72" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6836,6 +6836,9 @@
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
         <v>0</v>
       </c>
+      <c r="R83" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
       <c r="S83" s="6" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N83,Q83:R83))</f>
         <v>-------</v>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C62D7-A816-4D87-952D-2AF07AC5AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EFE17-4E78-4362-99F6-9C9AE69FDF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="318">
   <si>
     <t>NO</t>
   </si>
@@ -970,6 +970,15 @@
   </si>
   <si>
     <t>Community/Brgy. Affair's Office</t>
+  </si>
+  <si>
+    <t>SUMAGUI</t>
+  </si>
+  <si>
+    <t>FELICITAS</t>
+  </si>
+  <si>
+    <t>her Compulsory retirement</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N72" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6682,7 +6691,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A80+1)</f>
         <v>80</v>
@@ -6747,7 +6756,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A81+1)</f>
         <v>81</v>
@@ -6812,39 +6821,77 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="str">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A82+1)</f>
-        <v/>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>45112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H83" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8" t="str">
+        <v>FELICITAS M. SUMAGUI</v>
+      </c>
+      <c r="I83" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" t="s">
+        <v>234</v>
+      </c>
+      <c r="K83" s="8">
+        <v>37935</v>
+      </c>
+      <c r="L83" s="8">
+        <v>45007</v>
+      </c>
+      <c r="M83" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
+        <v>45008</v>
+      </c>
+      <c r="N83" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O83" s="7">
+        <v>53.457999999999998</v>
+      </c>
+      <c r="P83" s="7">
+        <v>67.457999999999998</v>
+      </c>
       <c r="Q83" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
+        <v>120.916</v>
       </c>
       <c r="R83" s="1">
         <v>4.8192699999999998E-2</v>
       </c>
-      <c r="S83" s="6" t="str">
+      <c r="S83" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N83,Q83:R83))</f>
-        <v>-------</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68843.350214944803</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U83" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A83+1)</f>
         <v/>
@@ -6873,7 +6920,7 @@
         <v>-------</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A84+1)</f>
         <v/>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84EFE17-4E78-4362-99F6-9C9AE69FDF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFDF6B-9174-47B8-BA20-4A2BD4C8F35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="319">
   <si>
     <t>NO</t>
   </si>
@@ -969,9 +969,6 @@
     <t>Community Affairs Asst II</t>
   </si>
   <si>
-    <t>Community/Brgy. Affair's Office</t>
-  </si>
-  <si>
     <t>SUMAGUI</t>
   </si>
   <si>
@@ -979,6 +976,12 @@
   </si>
   <si>
     <t>her Compulsory retirement</t>
+  </si>
+  <si>
+    <t>Office of The City Mayor Community Affairs Division</t>
+  </si>
+  <si>
+    <t>Office of the City Engineer(Parks &amp; Plaza Div) detailed at Picnic Grove</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="N66" workbookViewId="0">
+      <selection activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4199,6 +4202,9 @@
         <v>80323.636221257009</v>
       </c>
       <c r="T43"/>
+      <c r="U43" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -6697,7 +6703,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>45093</v>
+        <v>45118</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>274</v>
@@ -6722,9 +6728,11 @@
         <v>309</v>
       </c>
       <c r="J81" t="s">
-        <v>227</v>
-      </c>
-      <c r="K81" s="8"/>
+        <v>318</v>
+      </c>
+      <c r="K81" s="8">
+        <v>32340</v>
+      </c>
       <c r="L81" s="8">
         <v>45062</v>
       </c>
@@ -6754,6 +6762,9 @@
       </c>
       <c r="T81" t="s">
         <v>287</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
@@ -6762,7 +6773,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4">
-        <v>45093</v>
+        <v>45118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
@@ -6787,9 +6798,11 @@
         <v>313</v>
       </c>
       <c r="J82" t="s">
-        <v>314</v>
-      </c>
-      <c r="K82" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="K82" s="8">
+        <v>30851</v>
+      </c>
       <c r="L82" s="8">
         <v>45088</v>
       </c>
@@ -6817,8 +6830,11 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N82,Q82:R82))</f>
         <v>286764.41249174724</v>
       </c>
-      <c r="T82" t="s">
-        <v>287</v>
+      <c r="T82" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
@@ -6836,10 +6852,10 @@
         <v>21</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>108</v>
@@ -6885,7 +6901,7 @@
         <v>68843.350214944803</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U83" s="9" t="s">
         <v>276</v>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CFDF6B-9174-47B8-BA20-4A2BD4C8F35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912CC80-1B5A-436D-BEB3-2871E596F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="329">
   <si>
     <t>NO</t>
   </si>
@@ -982,6 +982,57 @@
   </si>
   <si>
     <t>Office of the City Engineer(Parks &amp; Plaza Div) detailed at Picnic Grove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERESITA</t>
+  </si>
+  <si>
+    <t>ABAJETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HANNABELLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARNOLD DEEJAY</t>
+  </si>
+  <si>
+    <t>EBARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IVY</t>
+  </si>
+  <si>
+    <t>MARGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RUBEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RENE ROSE</t>
+  </si>
+  <si>
+    <r>
+      <t>RI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ñ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -992,7 +1043,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1064,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1035,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,6 +1119,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,8 +1229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U85" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:U85" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U89" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:U89" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
     <sortCondition ref="A1:A73"/>
   </sortState>
@@ -1479,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N66" workbookViewId="0">
-      <selection activeCell="S86" sqref="S86"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6846,7 +6931,7 @@
         <v>45112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>21</v>
@@ -6908,70 +6993,414 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="str">
+      <c r="A84" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A83+1)</f>
-        <v/>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>45142</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8" t="str">
+        <v xml:space="preserve"> TERESITA P. RIÑO</v>
+      </c>
+      <c r="I84" t="s">
+        <v>208</v>
+      </c>
+      <c r="J84" t="s">
+        <v>260</v>
+      </c>
+      <c r="K84" s="8">
+        <v>42552</v>
+      </c>
+      <c r="L84" s="8">
+        <v>44742</v>
+      </c>
+      <c r="M84" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N84" s="5"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
+        <v>44743</v>
+      </c>
+      <c r="N84" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O84" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="P84" s="7">
+        <v>67.5</v>
+      </c>
       <c r="Q84" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="6" t="str">
+        <v>115</v>
+      </c>
+      <c r="R84" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S84" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N84,Q84:R84))</f>
-        <v>-------</v>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="str">
+      <c r="A85" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A84+1)</f>
-        <v/>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>45142</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H85" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8" t="str">
+        <v xml:space="preserve"> HANNABELLE E. ABAJETO</v>
+      </c>
+      <c r="I85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" t="s">
+        <v>260</v>
+      </c>
+      <c r="K85" s="8">
+        <v>42767</v>
+      </c>
+      <c r="L85" s="8">
+        <v>44742</v>
+      </c>
+      <c r="M85" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N85" s="5"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+        <v>44743</v>
+      </c>
+      <c r="N85" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O85" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="P85" s="7">
+        <v>67.5</v>
+      </c>
       <c r="Q85" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S85" s="6" t="str">
+        <v>115</v>
+      </c>
+      <c r="R85" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S85" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N85,Q85:R85))</f>
-        <v>-------</v>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A85+1)</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="12">
+        <v>45142</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v xml:space="preserve"> ARNOLD DEEJAY S. DIMAPILIS</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K86" s="16">
+        <v>42552</v>
+      </c>
+      <c r="L86" s="16">
+        <v>44742</v>
+      </c>
+      <c r="M86" s="16">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>44743</v>
+      </c>
+      <c r="N86" s="17">
+        <v>11814</v>
+      </c>
+      <c r="O86" s="18">
+        <v>47.5</v>
+      </c>
+      <c r="P86" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="Q86" s="18">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>115</v>
+      </c>
+      <c r="R86" s="13">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S86" s="19">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N86,Q86:R86))</f>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T86" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A86+1)</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="12">
+        <v>45142</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v xml:space="preserve"> IVY B. EBARDO</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K87" s="16">
+        <v>42857</v>
+      </c>
+      <c r="L87" s="16">
+        <v>44742</v>
+      </c>
+      <c r="M87" s="16">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>44743</v>
+      </c>
+      <c r="N87" s="17">
+        <v>11814</v>
+      </c>
+      <c r="O87" s="18">
+        <v>47.5</v>
+      </c>
+      <c r="P87" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="Q87" s="18">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>115</v>
+      </c>
+      <c r="R87" s="13">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S87" s="19">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N87,Q87:R87))</f>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T87" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A87+1)</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="12">
+        <v>45142</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v xml:space="preserve"> RUBEN C. MARGES</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="K88" s="16">
+        <v>42857</v>
+      </c>
+      <c r="L88" s="16">
+        <v>44742</v>
+      </c>
+      <c r="M88" s="16">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>44743</v>
+      </c>
+      <c r="N88" s="17">
+        <v>11814</v>
+      </c>
+      <c r="O88" s="18">
+        <v>47.5</v>
+      </c>
+      <c r="P88" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="Q88" s="18">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>115</v>
+      </c>
+      <c r="R88" s="13">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S88" s="19">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N88,Q88:R88))</f>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T88" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A88+1)</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>45142</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v xml:space="preserve"> RENE ROSE C. MENDOZA</v>
+      </c>
+      <c r="I89" t="s">
+        <v>208</v>
+      </c>
+      <c r="J89" t="s">
+        <v>260</v>
+      </c>
+      <c r="K89" s="8">
+        <v>42552</v>
+      </c>
+      <c r="L89" s="8">
+        <v>44742</v>
+      </c>
+      <c r="M89" s="8">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>44743</v>
+      </c>
+      <c r="N89" s="5">
+        <v>11814</v>
+      </c>
+      <c r="O89" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="P89" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="Q89" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>115</v>
+      </c>
+      <c r="R89" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S89" s="6">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N89,Q89:R89))</f>
+        <v>65475.084146999994</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D85" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D89" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MR, MS,MRS,DR,ATTY,ENGR, HON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C85" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C89" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"his, her"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912CC80-1B5A-436D-BEB3-2871E596F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCEDF4-7A20-4C5F-AE58-5A5D7EE5D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="333">
   <si>
     <t>NO</t>
   </si>
@@ -1033,6 +1033,18 @@
       </rPr>
       <t>O</t>
     </r>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>CAPUPUS</t>
+  </si>
+  <si>
+    <t>LIZA FE</t>
+  </si>
+  <si>
+    <t>City Health Officer II</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,31 +1132,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1229,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U89" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:U89" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:U117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
     <sortCondition ref="A1:A73"/>
   </sortState>
@@ -1564,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7058,6 +7045,9 @@
       <c r="T84" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="U84" s="9" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -7125,206 +7115,218 @@
       <c r="T85" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="U85" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A85+1)</f>
         <v>85</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="4">
         <v>45142</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="H86" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v xml:space="preserve"> ARNOLD DEEJAY S. DIMAPILIS</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" t="s">
         <v>208</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="J86" t="s">
         <v>260</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="8">
         <v>42552</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="8">
         <v>44742</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M86" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>44743</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N86" s="5">
         <v>11814</v>
       </c>
-      <c r="O86" s="18">
+      <c r="O86" s="7">
         <v>47.5</v>
       </c>
-      <c r="P86" s="18">
+      <c r="P86" s="7">
         <v>67.5</v>
       </c>
-      <c r="Q86" s="18">
+      <c r="Q86" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
         <v>115</v>
       </c>
-      <c r="R86" s="13">
-        <v>4.8192699999999998E-2</v>
-      </c>
-      <c r="S86" s="19">
+      <c r="R86" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S86" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N86,Q86:R86))</f>
         <v>65475.084146999994</v>
       </c>
-      <c r="T86" s="13" t="s">
+      <c r="T86" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="U86" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A86+1)</f>
         <v>86</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="4">
         <v>45142</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="H87" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v xml:space="preserve"> IVY B. EBARDO</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" t="s">
         <v>208</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="J87" t="s">
         <v>260</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="8">
         <v>42857</v>
       </c>
-      <c r="L87" s="16">
+      <c r="L87" s="8">
         <v>44742</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M87" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>44743</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N87" s="5">
         <v>11814</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O87" s="7">
         <v>47.5</v>
       </c>
-      <c r="P87" s="18">
+      <c r="P87" s="7">
         <v>67.5</v>
       </c>
-      <c r="Q87" s="18">
+      <c r="Q87" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
         <v>115</v>
       </c>
-      <c r="R87" s="13">
-        <v>4.8192699999999998E-2</v>
-      </c>
-      <c r="S87" s="19">
+      <c r="R87" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S87" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N87,Q87:R87))</f>
         <v>65475.084146999994</v>
       </c>
-      <c r="T87" s="13" t="s">
+      <c r="T87" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="U87" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A87+1)</f>
         <v>87</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="4">
         <v>45142</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="H88" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v xml:space="preserve"> RUBEN C. MARGES</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" t="s">
         <v>208</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" t="s">
         <v>260</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="8">
         <v>42857</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L88" s="8">
         <v>44742</v>
       </c>
-      <c r="M88" s="16">
+      <c r="M88" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
         <v>44743</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N88" s="5">
         <v>11814</v>
       </c>
-      <c r="O88" s="18">
+      <c r="O88" s="7">
         <v>47.5</v>
       </c>
-      <c r="P88" s="18">
+      <c r="P88" s="7">
         <v>67.5</v>
       </c>
-      <c r="Q88" s="18">
+      <c r="Q88" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
         <v>115</v>
       </c>
-      <c r="R88" s="13">
-        <v>4.8192699999999998E-2</v>
-      </c>
-      <c r="S88" s="19">
+      <c r="R88" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S88" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N88,Q88:R88))</f>
         <v>65475.084146999994</v>
       </c>
-      <c r="T88" s="13" t="s">
+      <c r="T88" s="1" t="s">
         <v>300</v>
+      </c>
+      <c r="U88" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
@@ -7350,7 +7352,7 @@
       <c r="G89" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="10" t="str">
+      <c r="H89" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v xml:space="preserve"> RENE ROSE C. MENDOZA</v>
       </c>
@@ -7393,14 +7395,867 @@
       <c r="T89" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="U89" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4">
+        <v>45145</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>LIZA FE P. CAPUPUS</v>
+      </c>
+      <c r="I90" t="s">
+        <v>332</v>
+      </c>
+      <c r="J90" t="s">
+        <v>223</v>
+      </c>
+      <c r="K90" s="8">
+        <v>42186</v>
+      </c>
+      <c r="L90" s="8">
+        <v>45369</v>
+      </c>
+      <c r="M90" s="8">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>45370</v>
+      </c>
+      <c r="N90" s="5">
+        <v>95749</v>
+      </c>
+      <c r="O90" s="7">
+        <v>90.542000000000002</v>
+      </c>
+      <c r="P90" s="7">
+        <v>101.542</v>
+      </c>
+      <c r="Q90" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>192.084</v>
+      </c>
+      <c r="R90" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S90" s="6">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N90,Q90:R90))</f>
+        <v>886352.95363951323</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="U90" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="2"/>
+      <c r="H91" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N91" s="5"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N91,Q91:R91))</f>
+        <v>-------</v>
+      </c>
+      <c r="U91" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="2"/>
+      <c r="H92" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N92" s="5"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S92" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N92,Q92:R92))</f>
+        <v>-------</v>
+      </c>
+      <c r="U92" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="2"/>
+      <c r="H93" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N93" s="5"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N93,Q93:R93))</f>
+        <v>-------</v>
+      </c>
+      <c r="U93" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="2"/>
+      <c r="H94" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N94,Q94:R94))</f>
+        <v>-------</v>
+      </c>
+      <c r="U94" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="H95" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N95,Q95:R95))</f>
+        <v>-------</v>
+      </c>
+      <c r="U95" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="2"/>
+      <c r="H96" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N96,Q96:R96))</f>
+        <v>-------</v>
+      </c>
+      <c r="U96" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+      <c r="H97" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N97,Q97:R97))</f>
+        <v>-------</v>
+      </c>
+      <c r="U97" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="2"/>
+      <c r="H98" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N98,Q98:R98))</f>
+        <v>-------</v>
+      </c>
+      <c r="U98" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="2"/>
+      <c r="H99" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N99" s="5"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N99,Q99:R99))</f>
+        <v>-------</v>
+      </c>
+      <c r="U99" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="2"/>
+      <c r="H100" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N100" s="5"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N100,Q100:R100))</f>
+        <v>-------</v>
+      </c>
+      <c r="U100" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="2"/>
+      <c r="H101" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N101,Q101:R101))</f>
+        <v>-------</v>
+      </c>
+      <c r="U101" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="2"/>
+      <c r="H102" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N102,Q102:R102))</f>
+        <v>-------</v>
+      </c>
+      <c r="U102" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="2"/>
+      <c r="H103" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N103" s="5"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S103" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N103,Q103:R103))</f>
+        <v>-------</v>
+      </c>
+      <c r="U103" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="2"/>
+      <c r="H104" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S104" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N104,Q104:R104))</f>
+        <v>-------</v>
+      </c>
+      <c r="U104" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="2"/>
+      <c r="H105" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N105" s="5"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S105" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N105,Q105:R105))</f>
+        <v>-------</v>
+      </c>
+      <c r="U105" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="2"/>
+      <c r="H106" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S106" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N106,Q106:R106))</f>
+        <v>-------</v>
+      </c>
+      <c r="U106" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="2"/>
+      <c r="H107" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N107" s="5"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S107" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N107,Q107:R107))</f>
+        <v>-------</v>
+      </c>
+      <c r="U107" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="2"/>
+      <c r="H108" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N108" s="5"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S108" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N108,Q108:R108))</f>
+        <v>-------</v>
+      </c>
+      <c r="U108" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="2"/>
+      <c r="H109" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S109" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N109,Q109:R109))</f>
+        <v>-------</v>
+      </c>
+      <c r="U109" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="2"/>
+      <c r="H110" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S110" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N110,Q110:R110))</f>
+        <v>-------</v>
+      </c>
+      <c r="U110" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="2"/>
+      <c r="H111" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N111" s="5"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S111" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N111,Q111:R111))</f>
+        <v>-------</v>
+      </c>
+      <c r="U111" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="2"/>
+      <c r="H112" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N112" s="5"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S112" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N112,Q112:R112))</f>
+        <v>-------</v>
+      </c>
+      <c r="U112" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="2"/>
+      <c r="H113" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N113" s="5"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S113" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N113,Q113:R113))</f>
+        <v>-------</v>
+      </c>
+      <c r="U113" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="2"/>
+      <c r="H114" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S114" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N114,Q114:R114))</f>
+        <v>-------</v>
+      </c>
+      <c r="U114" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="2"/>
+      <c r="H115" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N115" s="5"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S115" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N115,Q115:R115))</f>
+        <v>-------</v>
+      </c>
+      <c r="U115" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="2"/>
+      <c r="H116" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S116" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N116,Q116:R116))</f>
+        <v>-------</v>
+      </c>
+      <c r="U116" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="2"/>
+      <c r="H117" s="10" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>------</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
+        <v>---</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="S117" s="6" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N117,Q117:R117))</f>
+        <v>-------</v>
+      </c>
+      <c r="U117" s="9" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D117" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MR, MS,MRS,DR,ATTY,ENGR, HON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C89" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C117" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"his, her"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
+++ b/SHARED FOLDER/LEAVE CERTIFICATION/LEAVE CERTIFICATION DATA BANK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\LEAVE CERTIFICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCEDF4-7A20-4C5F-AE58-5A5D7EE5D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C6A49-B106-488C-BB40-0C1825DBD292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="339">
   <si>
     <t>NO</t>
   </si>
@@ -1045,6 +1045,24 @@
   </si>
   <si>
     <t>City Health Officer II</t>
+  </si>
+  <si>
+    <t>ANDREW</t>
+  </si>
+  <si>
+    <t>Nurse III</t>
+  </si>
+  <si>
+    <t>FLAVIER</t>
+  </si>
+  <si>
+    <t>ADORACION</t>
+  </si>
+  <si>
+    <t>Admin Assistant V</t>
+  </si>
+  <si>
+    <t>City Administration Office</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,9 +1149,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1553,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7400,7 +7415,10 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A89+1)</f>
+        <v>89</v>
+      </c>
       <c r="B90" s="4">
         <v>45145</v>
       </c>
@@ -7419,7 +7437,7 @@
       <c r="G90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H90" s="10" t="str">
+      <c r="H90" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>LIZA FE P. CAPUPUS</v>
       </c>
@@ -7462,73 +7480,153 @@
       <c r="T90" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="U90" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U90" s="9"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="2"/>
-      <c r="H91" s="10" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8" t="str">
+      <c r="A91" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A90+1)</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>45153</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>ANDREW G. DE GUZMAN</v>
+      </c>
+      <c r="I91" t="s">
+        <v>334</v>
+      </c>
+      <c r="J91" t="s">
+        <v>223</v>
+      </c>
+      <c r="K91" s="8">
+        <v>41155</v>
+      </c>
+      <c r="L91" s="8">
+        <v>44651</v>
+      </c>
+      <c r="M91" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
+        <v>44652</v>
+      </c>
+      <c r="N91" s="5">
+        <v>39433</v>
+      </c>
+      <c r="O91" s="7">
+        <v>23.61</v>
+      </c>
+      <c r="P91" s="7">
+        <v>40.396000000000001</v>
+      </c>
       <c r="Q91" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S91" s="6" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N91,Q91:R91))</f>
-        <v>-------</v>
+        <v>64.006</v>
+      </c>
+      <c r="R91" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S91" s="6">
+        <v>121635.89</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="U91" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="2"/>
-      <c r="H92" s="10" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8" t="str">
+      <c r="A92" s="2">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A91+1)</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>45173</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
+        <v>ADORACION P. FLAVIER</v>
+      </c>
+      <c r="I92" t="s">
+        <v>337</v>
+      </c>
+      <c r="J92" t="s">
+        <v>338</v>
+      </c>
+      <c r="K92" s="8">
+        <v>34582</v>
+      </c>
+      <c r="L92" s="8">
+        <v>45146</v>
+      </c>
+      <c r="M92" s="8">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTDAY OF SERVICE]]),"---",Table1[[#This Row],[LASTDAY OF SERVICE]]+1)</f>
-        <v>---</v>
-      </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
+        <v>45147</v>
+      </c>
+      <c r="N92" s="5">
+        <v>24167</v>
+      </c>
+      <c r="O92" s="7">
+        <v>13.835000000000001</v>
+      </c>
+      <c r="P92" s="7">
+        <v>183.791</v>
+      </c>
       <c r="Q92" s="7">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
-      </c>
-      <c r="S92" s="6" t="str">
+        <v>197.626</v>
+      </c>
+      <c r="R92" s="1">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="S92" s="6">
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N92,Q92:R92))</f>
-        <v>-------</v>
-      </c>
-      <c r="U92" s="9" t="s">
-        <v>276</v>
-      </c>
+        <v>230169.6625233434</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="U92" s="9"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A92+1)</f>
+        <v/>
+      </c>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
-      <c r="H93" s="10" t="str">
+      <c r="H93" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7549,15 +7647,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N93,Q93:R93))</f>
         <v>-------</v>
       </c>
-      <c r="U93" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U93" s="9"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A93+1)</f>
+        <v/>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
-      <c r="H94" s="10" t="str">
+      <c r="H94" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7578,15 +7677,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N94,Q94:R94))</f>
         <v>-------</v>
       </c>
-      <c r="U94" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U94" s="9"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A94+1)</f>
+        <v/>
+      </c>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
-      <c r="H95" s="10" t="str">
+      <c r="H95" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7607,15 +7707,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N95,Q95:R95))</f>
         <v>-------</v>
       </c>
-      <c r="U95" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U95" s="9"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A95+1)</f>
+        <v/>
+      </c>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
-      <c r="H96" s="10" t="str">
+      <c r="H96" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7636,15 +7737,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N96,Q96:R96))</f>
         <v>-------</v>
       </c>
-      <c r="U96" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U96" s="9"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A96+1)</f>
+        <v/>
+      </c>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
-      <c r="H97" s="10" t="str">
+      <c r="H97" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7665,15 +7767,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N97,Q97:R97))</f>
         <v>-------</v>
       </c>
-      <c r="U97" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U97" s="9"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A97+1)</f>
+        <v/>
+      </c>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
-      <c r="H98" s="10" t="str">
+      <c r="H98" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7694,15 +7797,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N98,Q98:R98))</f>
         <v>-------</v>
       </c>
-      <c r="U98" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U98" s="9"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A98+1)</f>
+        <v/>
+      </c>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
-      <c r="H99" s="10" t="str">
+      <c r="H99" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7723,15 +7827,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N99,Q99:R99))</f>
         <v>-------</v>
       </c>
-      <c r="U99" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U99" s="9"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A99+1)</f>
+        <v/>
+      </c>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
-      <c r="H100" s="10" t="str">
+      <c r="H100" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7752,15 +7857,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N100,Q100:R100))</f>
         <v>-------</v>
       </c>
-      <c r="U100" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U100" s="9"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A100+1)</f>
+        <v/>
+      </c>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
-      <c r="H101" s="10" t="str">
+      <c r="H101" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7781,15 +7887,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N101,Q101:R101))</f>
         <v>-------</v>
       </c>
-      <c r="U101" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U101" s="9"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A101+1)</f>
+        <v/>
+      </c>
       <c r="B102" s="4"/>
       <c r="C102" s="2"/>
-      <c r="H102" s="10" t="str">
+      <c r="H102" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7810,15 +7917,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N102,Q102:R102))</f>
         <v>-------</v>
       </c>
-      <c r="U102" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U102" s="9"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A102+1)</f>
+        <v/>
+      </c>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
-      <c r="H103" s="10" t="str">
+      <c r="H103" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7839,15 +7947,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N103,Q103:R103))</f>
         <v>-------</v>
       </c>
-      <c r="U103" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U103" s="9"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A103+1)</f>
+        <v/>
+      </c>
       <c r="B104" s="4"/>
       <c r="C104" s="2"/>
-      <c r="H104" s="10" t="str">
+      <c r="H104" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7868,15 +7977,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N104,Q104:R104))</f>
         <v>-------</v>
       </c>
-      <c r="U104" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U104" s="9"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A104+1)</f>
+        <v/>
+      </c>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
-      <c r="H105" s="10" t="str">
+      <c r="H105" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7897,15 +8007,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N105,Q105:R105))</f>
         <v>-------</v>
       </c>
-      <c r="U105" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U105" s="9"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A105+1)</f>
+        <v/>
+      </c>
       <c r="B106" s="4"/>
       <c r="C106" s="2"/>
-      <c r="H106" s="10" t="str">
+      <c r="H106" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7926,15 +8037,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N106,Q106:R106))</f>
         <v>-------</v>
       </c>
-      <c r="U106" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U106" s="9"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A106+1)</f>
+        <v/>
+      </c>
       <c r="B107" s="4"/>
       <c r="C107" s="2"/>
-      <c r="H107" s="10" t="str">
+      <c r="H107" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7955,15 +8067,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N107,Q107:R107))</f>
         <v>-------</v>
       </c>
-      <c r="U107" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U107" s="9"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A107+1)</f>
+        <v/>
+      </c>
       <c r="B108" s="4"/>
       <c r="C108" s="2"/>
-      <c r="H108" s="10" t="str">
+      <c r="H108" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -7984,15 +8097,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N108,Q108:R108))</f>
         <v>-------</v>
       </c>
-      <c r="U108" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U108" s="9"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A108+1)</f>
+        <v/>
+      </c>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
-      <c r="H109" s="10" t="str">
+      <c r="H109" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8013,15 +8127,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N109,Q109:R109))</f>
         <v>-------</v>
       </c>
-      <c r="U109" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U109" s="9"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A109+1)</f>
+        <v/>
+      </c>
       <c r="B110" s="4"/>
       <c r="C110" s="2"/>
-      <c r="H110" s="10" t="str">
+      <c r="H110" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8042,15 +8157,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N110,Q110:R110))</f>
         <v>-------</v>
       </c>
-      <c r="U110" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U110" s="9"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A110+1)</f>
+        <v/>
+      </c>
       <c r="B111" s="4"/>
       <c r="C111" s="2"/>
-      <c r="H111" s="10" t="str">
+      <c r="H111" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8071,15 +8187,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N111,Q111:R111))</f>
         <v>-------</v>
       </c>
-      <c r="U111" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U111" s="9"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+      <c r="A112" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A111+1)</f>
+        <v/>
+      </c>
       <c r="B112" s="4"/>
       <c r="C112" s="2"/>
-      <c r="H112" s="10" t="str">
+      <c r="H112" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8100,15 +8217,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N112,Q112:R112))</f>
         <v>-------</v>
       </c>
-      <c r="U112" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U112" s="9"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+      <c r="A113" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A112+1)</f>
+        <v/>
+      </c>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
-      <c r="H113" s="10" t="str">
+      <c r="H113" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8129,15 +8247,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N113,Q113:R113))</f>
         <v>-------</v>
       </c>
-      <c r="U113" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U113" s="9"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
+      <c r="A114" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A113+1)</f>
+        <v/>
+      </c>
       <c r="B114" s="4"/>
       <c r="C114" s="2"/>
-      <c r="H114" s="10" t="str">
+      <c r="H114" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8158,15 +8277,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N114,Q114:R114))</f>
         <v>-------</v>
       </c>
-      <c r="U114" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U114" s="9"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
+      <c r="A115" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A114+1)</f>
+        <v/>
+      </c>
       <c r="B115" s="4"/>
       <c r="C115" s="2"/>
-      <c r="H115" s="10" t="str">
+      <c r="H115" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8187,15 +8307,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N115,Q115:R115))</f>
         <v>-------</v>
       </c>
-      <c r="U115" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U115" s="9"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A115+1)</f>
+        <v/>
+      </c>
       <c r="B116" s="4"/>
       <c r="C116" s="2"/>
-      <c r="H116" s="10" t="str">
+      <c r="H116" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8216,15 +8337,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N116,Q116:R116))</f>
         <v>-------</v>
       </c>
-      <c r="U116" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U116" s="9"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
+      <c r="A117" s="2" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[DATE CREATED]]),"",A116+1)</f>
+        <v/>
+      </c>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
-      <c r="H117" s="10" t="str">
+      <c r="H117" s="1" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table1[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table1[[#This Row],[MIDDLE INITIAL]]),"",LEFT(Table1[[#This Row],[MIDDLE INITIAL]],1)&amp;". "),Table1[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
@@ -8245,9 +8367,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[MONTHLY SALARY]]),"-------",PRODUCT(N117,Q117:R117))</f>
         <v>-------</v>
       </c>
-      <c r="U117" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="U117" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
